--- a/results/Dairy2022.xlsx
+++ b/results/Dairy2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://001gc-my.sharepoint.com/personal/kelsey_ewen_agr_gc_ca/Documents/Documents/FMS/results/"/>
     </mc:Choice>
@@ -14,13 +14,14 @@
   </bookViews>
   <sheets>
     <sheet name="Dairy2022_LMS9" sheetId="1" r:id="rId1"/>
+    <sheet name="Dairy2022_LMS8" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Province</t>
   </si>
@@ -68,12 +69,25 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>Occasionally Turned/Mixed</t>
+  </si>
+  <si>
+    <t>Actively Composted</t>
+  </si>
+  <si>
+    <t>Mixed with Additives</t>
+  </si>
+  <si>
+    <t>Anaerobic digestion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,4 +678,224 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>